--- a/Tables/te_outcome_ofirec.xlsx
+++ b/Tables/te_outcome_ofirec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\information_lawyer_quality\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA7162-EAFD-4D51-8803-405FD0B0A974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E0204-9365-4BCD-8786-FEED3A07FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24375" yWindow="-5325" windowWidth="16740" windowHeight="9405" xr2:uid="{6584C764-E8BF-46F4-ABE6-14D46ACB446E}"/>
+    <workbookView xWindow="-25425" yWindow="-6180" windowWidth="20250" windowHeight="11355" xr2:uid="{6584C764-E8BF-46F4-ABE6-14D46ACB446E}"/>
   </bookViews>
   <sheets>
     <sheet name="te_outcome_ofirec" sheetId="1" r:id="rId1"/>
@@ -204,13 +204,13 @@
             <v>0.020</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.0014</v>
+            <v>-0.0013</v>
           </cell>
           <cell r="F8" t="str">
-            <v>2.90</v>
+            <v>2.97</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-12668.8*</v>
+            <v>-12667.3*</v>
           </cell>
         </row>
         <row r="9">
@@ -233,7 +233,7 @@
             <v>(35.8)</v>
           </cell>
           <cell r="G9" t="str">
-            <v>(7568.1)</v>
+            <v>(7573.0)</v>
           </cell>
         </row>
         <row r="11">
@@ -244,7 +244,7 @@
             <v>-0.053</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.047</v>
+            <v>-0.046</v>
           </cell>
           <cell r="D11" t="str">
             <v>-0.046</v>
@@ -253,10 +253,10 @@
             <v>-0.030</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-9.15</v>
+            <v>-9.05</v>
           </cell>
           <cell r="G11" t="str">
-            <v>-10797.6</v>
+            <v>-10783.8</v>
           </cell>
         </row>
         <row r="12">
@@ -279,7 +279,7 @@
             <v>(36.8)</v>
           </cell>
           <cell r="G12" t="str">
-            <v>(7250.4)</v>
+            <v>(7252.3)</v>
           </cell>
         </row>
         <row r="23">
@@ -290,7 +290,7 @@
             <v>7.35***</v>
           </cell>
           <cell r="C23" t="str">
-            <v>6.85***</v>
+            <v>6.86***</v>
           </cell>
           <cell r="D23" t="str">
             <v>0.47***</v>
@@ -302,7 +302,7 @@
             <v>408.8***</v>
           </cell>
           <cell r="G23" t="str">
-            <v>23635.7***</v>
+            <v>23657.4***</v>
           </cell>
         </row>
         <row r="24">
@@ -322,10 +322,10 @@
             <v>(0.024)</v>
           </cell>
           <cell r="F24" t="str">
-            <v>(35.1)</v>
+            <v>(35.2)</v>
           </cell>
           <cell r="G24" t="str">
-            <v>(6407.4)</v>
+            <v>(6428.4)</v>
           </cell>
         </row>
         <row r="26">
@@ -356,7 +356,7 @@
             <v>R-squared</v>
           </cell>
           <cell r="B27" t="str">
-            <v>0.003</v>
+            <v>0.002</v>
           </cell>
           <cell r="C27" t="str">
             <v>0.007</v>
@@ -405,7 +405,7 @@
             <v>0.99</v>
           </cell>
           <cell r="C29" t="str">
-            <v>0.93</v>
+            <v>0.92</v>
           </cell>
           <cell r="D29" t="str">
             <v>0.32</v>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F6350-3E9D-439B-ACAD-3D1F58F80DF5}">
   <dimension ref="A3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G16"/>
     </sheetView>
   </sheetViews>
@@ -810,15 +810,15 @@
       </c>
       <c r="E5" s="1" t="str">
         <f>[1]te_outcome_ofirec!E8</f>
-        <v>-0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>[1]te_outcome_ofirec!F8</f>
-        <v>2.90</v>
+        <v>2.97</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>[1]te_outcome_ofirec!G8</f>
-        <v>-12668.8*</v>
+        <v>-12667.3*</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -848,7 +848,7 @@
       </c>
       <c r="G6" s="1" t="str">
         <f>[1]te_outcome_ofirec!G9</f>
-        <v>(7568.1)</v>
+        <v>(7573.0)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -862,7 +862,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>[1]te_outcome_ofirec!C11</f>
-        <v>-0.047</v>
+        <v>-0.046</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>[1]te_outcome_ofirec!D11</f>
@@ -874,11 +874,11 @@
       </c>
       <c r="F7" s="1" t="str">
         <f>[1]te_outcome_ofirec!F11</f>
-        <v>-9.15</v>
+        <v>-9.05</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>[1]te_outcome_ofirec!G11</f>
-        <v>-10797.6</v>
+        <v>-10783.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
       </c>
       <c r="G8" s="1" t="str">
         <f>[1]te_outcome_ofirec!G12</f>
-        <v>(7250.4)</v>
+        <v>(7252.3)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>[1]te_outcome_ofirec!C23</f>
-        <v>6.85***</v>
+        <v>6.86***</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>[1]te_outcome_ofirec!D23</f>
@@ -938,7 +938,7 @@
       </c>
       <c r="G9" s="1" t="str">
         <f>[1]te_outcome_ofirec!G23</f>
-        <v>23635.7***</v>
+        <v>23657.4***</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -964,11 +964,11 @@
       </c>
       <c r="F10" s="1" t="str">
         <f>[1]te_outcome_ofirec!F24</f>
-        <v>(35.1)</v>
+        <v>(35.2)</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>[1]te_outcome_ofirec!G24</f>
-        <v>(6407.4)</v>
+        <v>(6428.4)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B13" s="1" t="str">
         <f>[1]te_outcome_ofirec!B27</f>
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>[1]te_outcome_ofirec!C27</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>[1]te_outcome_ofirec!C29</f>
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>[1]te_outcome_ofirec!D29</f>
